--- a/Base de données/insert into/PAYS_PAYS.xlsx
+++ b/Base de données/insert into/PAYS_PAYS.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="40">
   <si>
     <t>idPAYS_PAYS</t>
   </si>
@@ -30,97 +30,100 @@
     <t>occurrences_PAYS_PAYS</t>
   </si>
   <si>
-    <t>usa</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>france</t>
-  </si>
-  <si>
-    <t>austral</t>
-  </si>
-  <si>
-    <t>netherl</t>
-  </si>
-  <si>
-    <t>norway</t>
-  </si>
-  <si>
-    <t>germany</t>
-  </si>
-  <si>
-    <t>spain</t>
-  </si>
-  <si>
-    <t>canada</t>
-  </si>
-  <si>
-    <t>denmark</t>
-  </si>
-  <si>
-    <t>belgium</t>
-  </si>
-  <si>
-    <t>ireland</t>
-  </si>
-  <si>
-    <t>new-zea</t>
-  </si>
-  <si>
-    <t>switzer</t>
-  </si>
-  <si>
-    <t>sweden</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
-    <t>turkey</t>
-  </si>
-  <si>
-    <t>austria</t>
-  </si>
-  <si>
-    <t>poland</t>
-  </si>
-  <si>
-    <t>croatia</t>
-  </si>
-  <si>
-    <t>japan</t>
-  </si>
-  <si>
-    <t>russia</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>hungary</t>
-  </si>
-  <si>
-    <t>israel</t>
-  </si>
-  <si>
-    <t>iran</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>colombi</t>
-  </si>
-  <si>
-    <t>greece</t>
-  </si>
-  <si>
-    <t>singapo</t>
-  </si>
-  <si>
-    <t>INSERT INTO PAYS_PAYS VALUES (</t>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>GERMANY</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>NEW-ZEALAND</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>DENMARK</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t>ITALY</t>
+  </si>
+  <si>
+    <t>SPAIN</t>
+  </si>
+  <si>
+    <t>NETHERLANDS</t>
+  </si>
+  <si>
+    <t>TURKEY</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>POLAND</t>
+  </si>
+  <si>
+    <t>CROATIA</t>
+  </si>
+  <si>
+    <t>JAPAN</t>
+  </si>
+  <si>
+    <t>RUSSIA</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>BELGIUM</t>
+  </si>
+  <si>
+    <t>IRELAND</t>
+  </si>
+  <si>
+    <t>HUNGARY</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>IRAN</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
+  </si>
+  <si>
+    <t>GREECE</t>
+  </si>
+  <si>
+    <t>SINGAPORE</t>
+  </si>
+  <si>
+    <t>CZECHOSLOVAKIA</t>
+  </si>
+  <si>
+    <t>INSERT INTO PAYS-PAYS VALUES (</t>
   </si>
   <si>
     <t>,'</t>
@@ -129,10 +132,10 @@
     <t>','</t>
   </si>
   <si>
+    <t>);</t>
+  </si>
+  <si>
     <t>',</t>
-  </si>
-  <si>
-    <t>);</t>
   </si>
 </sst>
 </file>
@@ -472,11 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,25 +499,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>503</v>
@@ -526,28 +528,28 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="I3" t="s">
         <v>38</v>
@@ -555,28 +557,28 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
         <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>38</v>
@@ -584,28 +586,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>263</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
@@ -613,25 +615,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -642,28 +644,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="s">
         <v>38</v>
@@ -671,28 +673,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H8">
-        <v>323</v>
+        <v>1</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -700,28 +702,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
@@ -729,28 +731,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>38</v>
@@ -758,28 +760,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
@@ -787,28 +789,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>263</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>38</v>
@@ -816,28 +818,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
         <v>38</v>
@@ -845,28 +847,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="s">
         <v>38</v>
@@ -874,28 +876,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s">
         <v>38</v>
@@ -903,25 +905,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -932,28 +934,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I17" t="s">
         <v>38</v>
@@ -961,28 +963,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>38</v>
@@ -990,28 +992,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
         <v>38</v>
@@ -1019,28 +1021,28 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -1048,28 +1050,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I21" t="s">
         <v>38</v>
@@ -1077,28 +1079,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
@@ -1106,25 +1108,25 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1135,28 +1137,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
         <v>38</v>
@@ -1164,25 +1166,25 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1193,25 +1195,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1222,25 +1224,25 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1251,28 +1253,28 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
         <v>38</v>
@@ -1280,28 +1282,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
         <v>38</v>
@@ -1309,28 +1311,28 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
         <v>38</v>
@@ -1338,28 +1340,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I31" t="s">
         <v>38</v>
@@ -1367,28 +1369,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I32" t="s">
         <v>38</v>
@@ -1396,28 +1398,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I33" t="s">
         <v>38</v>
@@ -1425,28 +1427,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I34" t="s">
         <v>38</v>
@@ -1454,28 +1456,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
         <v>38</v>
@@ -1483,28 +1485,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="s">
         <v>38</v>
@@ -1512,28 +1514,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
         <v>38</v>
@@ -1541,28 +1543,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38">
         <v>6</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
       </c>
       <c r="I38" t="s">
         <v>38</v>
@@ -1570,28 +1572,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H39">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="I39" t="s">
         <v>38</v>
@@ -1599,28 +1601,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="s">
         <v>38</v>
@@ -1628,28 +1630,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
         <v>38</v>
@@ -1657,28 +1659,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H42">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I42" t="s">
         <v>38</v>
@@ -1686,25 +1688,25 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1715,28 +1717,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H44">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
         <v>38</v>
@@ -1744,28 +1746,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I45" t="s">
         <v>38</v>
@@ -1773,25 +1775,25 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1802,28 +1804,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I47" t="s">
         <v>38</v>
@@ -1831,28 +1833,28 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
         <v>38</v>
@@ -1860,28 +1862,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49" t="s">
         <v>38</v>
@@ -1889,28 +1891,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="s">
         <v>38</v>
@@ -1918,28 +1920,28 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H51">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I51" t="s">
         <v>38</v>
@@ -1947,28 +1949,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H52">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I52" t="s">
         <v>38</v>
@@ -1976,28 +1978,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H53">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I53" t="s">
         <v>38</v>
@@ -2005,28 +2007,28 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I54" t="s">
         <v>38</v>
@@ -2034,668 +2036,30 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H55">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="C56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56">
-        <v>9</v>
-      </c>
-      <c r="I56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57">
-        <v>56</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57">
-        <v>7</v>
-      </c>
-      <c r="I57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58">
-        <v>57</v>
-      </c>
-      <c r="C58" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="I58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
-      <c r="C60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" t="s">
-        <v>7</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61">
-        <v>6</v>
-      </c>
-      <c r="I61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H62">
-        <v>6</v>
-      </c>
-      <c r="I62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64">
-        <v>63</v>
-      </c>
-      <c r="C64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H64">
-        <v>6</v>
-      </c>
-      <c r="I64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65">
-        <v>64</v>
-      </c>
-      <c r="C65" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
-      <c r="C66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67">
-        <v>66</v>
-      </c>
-      <c r="C67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="I67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68">
-        <v>5</v>
-      </c>
-      <c r="I68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69">
-        <v>68</v>
-      </c>
-      <c r="C69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F69" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B70">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70">
-        <v>4</v>
-      </c>
-      <c r="I70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71">
-        <v>70</v>
-      </c>
-      <c r="C71" t="s">
-        <v>35</v>
-      </c>
-      <c r="D71" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H71">
-        <v>3</v>
-      </c>
-      <c r="I71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72">
-        <v>71</v>
-      </c>
-      <c r="C72" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72">
-        <v>3</v>
-      </c>
-      <c r="I72" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73">
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F73" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="I73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74">
-        <v>73</v>
-      </c>
-      <c r="C74" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F74" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
-      <c r="I74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>34</v>
-      </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
-      <c r="I75" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" t="s">
-        <v>32</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
-      </c>
-      <c r="I76" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>34</v>
-      </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
-      <c r="C77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" t="s">
-        <v>33</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="I77" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2706,7 +2070,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2719,7 +2082,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
